--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H2">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J2">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N2">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O2">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P2">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q2">
-        <v>2.64618616688325</v>
+        <v>0.4840655818625</v>
       </c>
       <c r="R2">
-        <v>10.584744667533</v>
+        <v>1.93626232745</v>
       </c>
       <c r="S2">
-        <v>0.1145679755378341</v>
+        <v>0.09069546744010251</v>
       </c>
       <c r="T2">
-        <v>0.07880155701798694</v>
+        <v>0.05389283104016977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H3">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J3">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N3">
         <v>60.953383</v>
       </c>
       <c r="O3">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P3">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q3">
-        <v>4.0076544555585</v>
+        <v>0.5939805584378333</v>
       </c>
       <c r="R3">
-        <v>24.045926733351</v>
+        <v>3.563883350627</v>
       </c>
       <c r="S3">
-        <v>0.1735134373290585</v>
+        <v>0.1112893508986448</v>
       </c>
       <c r="T3">
-        <v>0.1790176830944881</v>
+        <v>0.09919511449420315</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H4">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J4">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N4">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O4">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P4">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q4">
-        <v>3.593566274291999</v>
+        <v>0.3041876328395</v>
       </c>
       <c r="R4">
-        <v>21.561397645752</v>
+        <v>1.825125797037</v>
       </c>
       <c r="S4">
-        <v>0.1555852789796691</v>
+        <v>0.05699318560044471</v>
       </c>
       <c r="T4">
-        <v>0.1605208022807432</v>
+        <v>0.05079951967887997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H5">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J5">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N5">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O5">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P5">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q5">
-        <v>3.273252462657</v>
+        <v>0.38469086551375</v>
       </c>
       <c r="R5">
-        <v>13.093009850628</v>
+        <v>1.538763462055</v>
       </c>
       <c r="S5">
-        <v>0.1417171296426734</v>
+        <v>0.07207642760607935</v>
       </c>
       <c r="T5">
-        <v>0.09747514887591502</v>
+        <v>0.0428290723295386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H6">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I6">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J6">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N6">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O6">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P6">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q6">
-        <v>1.982795179095</v>
+        <v>0.2135087818571667</v>
       </c>
       <c r="R6">
-        <v>11.89677107457</v>
+        <v>1.281052691143</v>
       </c>
       <c r="S6">
-        <v>0.08584612542308477</v>
+        <v>0.04000341998825085</v>
       </c>
       <c r="T6">
-        <v>0.08856936219144208</v>
+        <v>0.03565609641760037</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H7">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I7">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J7">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N7">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O7">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P7">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q7">
-        <v>3.964016578157999</v>
+        <v>0.3833150948161667</v>
       </c>
       <c r="R7">
-        <v>23.784099468948</v>
+        <v>2.299890568897</v>
       </c>
       <c r="S7">
-        <v>0.171624113239502</v>
+        <v>0.0718186605365273</v>
       </c>
       <c r="T7">
-        <v>0.177068425294439</v>
+        <v>0.06401385395112309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.110328</v>
       </c>
       <c r="I8">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J8">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N8">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O8">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P8">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q8">
-        <v>0.493368225732</v>
+        <v>0.6089379274</v>
       </c>
       <c r="R8">
-        <v>2.960209354392</v>
+        <v>3.6536275644</v>
       </c>
       <c r="S8">
-        <v>0.02136062818414024</v>
+        <v>0.1140917925935867</v>
       </c>
       <c r="T8">
-        <v>0.02203823649528504</v>
+        <v>0.1016930042073552</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.110328</v>
       </c>
       <c r="I9">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J9">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N9">
         <v>60.953383</v>
       </c>
       <c r="O9">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P9">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q9">
-        <v>0.7472072044026666</v>
+        <v>0.7472072044026665</v>
       </c>
       <c r="R9">
-        <v>6.724864839624</v>
+        <v>6.724864839623999</v>
       </c>
       <c r="S9">
-        <v>0.03235071582908591</v>
+        <v>0.1399981928423116</v>
       </c>
       <c r="T9">
-        <v>0.05006543253928086</v>
+        <v>0.1871760863349201</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.110328</v>
       </c>
       <c r="I10">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J10">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N10">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O10">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P10">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q10">
-        <v>0.6700025262719999</v>
+        <v>0.3826576266159999</v>
       </c>
       <c r="R10">
-        <v>6.030022736447999</v>
+        <v>3.443918639544</v>
       </c>
       <c r="S10">
-        <v>0.02900810003501323</v>
+        <v>0.07169547601778564</v>
       </c>
       <c r="T10">
-        <v>0.04489245564359128</v>
+        <v>0.09585608454277429</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.110328</v>
       </c>
       <c r="I11">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J11">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N11">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O11">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P11">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q11">
-        <v>0.6102816121119999</v>
+        <v>0.4839279368599999</v>
       </c>
       <c r="R11">
-        <v>3.661689672672</v>
+        <v>2.90356762116</v>
       </c>
       <c r="S11">
-        <v>0.02642245269159946</v>
+        <v>0.09066967800513688</v>
       </c>
       <c r="T11">
-        <v>0.02726063373151622</v>
+        <v>0.080816259761127</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.110328</v>
       </c>
       <c r="I12">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J12">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N12">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O12">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P12">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q12">
-        <v>0.36968228152</v>
+        <v>0.2685867369573333</v>
       </c>
       <c r="R12">
-        <v>3.32714053368</v>
+        <v>2.417280632616</v>
       </c>
       <c r="S12">
-        <v>0.01600558234186503</v>
+        <v>0.05032293261345031</v>
       </c>
       <c r="T12">
-        <v>0.02476997440248575</v>
+        <v>0.06728122262328778</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.110328</v>
       </c>
       <c r="I13">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J13">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N13">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O13">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P13">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q13">
-        <v>0.7390711395946665</v>
+        <v>0.4821972644293334</v>
       </c>
       <c r="R13">
-        <v>6.651640256351999</v>
+        <v>4.339775379864</v>
       </c>
       <c r="S13">
-        <v>0.03199846076647439</v>
+        <v>0.09034541585767937</v>
       </c>
       <c r="T13">
-        <v>0.04952028843282677</v>
+        <v>0.1207908546190205</v>
       </c>
     </row>
   </sheetData>
